--- a/Cronograma de Atividades Parcial 2 entrega.xlsx
+++ b/Cronograma de Atividades Parcial 2 entrega.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="18">
   <si>
     <t>Alunos/Atividades:</t>
   </si>
@@ -62,6 +62,12 @@
   </si>
   <si>
     <t>Cronograma de Atividades Parcial 2º Entrega</t>
+  </si>
+  <si>
+    <t>Diagrama Caso de Uso</t>
+  </si>
+  <si>
+    <t>Espicificação Caso de Uso</t>
   </si>
 </sst>
 </file>
@@ -111,32 +117,10 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="4">
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -150,92 +134,6 @@
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -264,58 +162,40 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -620,10 +500,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -632,217 +512,265 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="9"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="7"/>
+      <c r="C2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2" t="s">
+      <c r="D2" s="8"/>
+      <c r="E2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2" t="s">
+      <c r="F2" s="8"/>
+      <c r="G2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3" t="s">
+      <c r="H2" s="9"/>
+      <c r="I2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="10"/>
+      <c r="J2" s="9"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="23"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="4" t="s">
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="14" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17" t="s">
+      <c r="B4" s="10"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="J4" s="17" t="s">
+      <c r="G4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="J5" s="18" t="s">
+      <c r="B5" s="9"/>
+      <c r="C5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="I6" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="J6" s="19" t="s">
+      <c r="B6" s="10"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19" t="s">
+      <c r="B8" s="10"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J8" s="19" t="s">
+      <c r="J8" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="16"/>
-      <c r="C9" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="H9" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="I9" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="J9" s="20" t="s">
-        <v>9</v>
-      </c>
+      <c r="B9" s="9"/>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="11"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="12"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J11" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Cronograma de Atividades Parcial 2 entrega.xlsx
+++ b/Cronograma de Atividades Parcial 2 entrega.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="18">
   <si>
     <t>Alunos/Atividades:</t>
   </si>
@@ -180,22 +180,22 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -503,7 +503,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -526,60 +526,60 @@
       <c r="J1" s="6"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="8" t="s">
+      <c r="B2" s="11"/>
+      <c r="C2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8" t="s">
+      <c r="D2" s="7"/>
+      <c r="E2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8" t="s">
+      <c r="F2" s="7"/>
+      <c r="G2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9" t="s">
+      <c r="H2" s="8"/>
+      <c r="I2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="9"/>
+      <c r="J2" s="8"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="14" t="s">
+      <c r="A3" s="12"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="H3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="I3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="14" t="s">
+      <c r="J3" s="10" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="10"/>
+      <c r="B4" s="9"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
@@ -602,21 +602,21 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="9"/>
+      <c r="B5" s="8"/>
       <c r="C5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>9</v>
@@ -632,79 +632,89 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="10"/>
+      <c r="B6" s="9"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="9"/>
+      <c r="B7" s="8"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
+      <c r="G7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="10"/>
+      <c r="B8" s="9"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
+      <c r="G8" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="9"/>
+      <c r="B9" s="8"/>
       <c r="C9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>9</v>
@@ -720,19 +730,21 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="2"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="D10" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>9</v>
@@ -744,17 +756,17 @@
       <c r="J10" s="2"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="12"/>
+      <c r="B11" s="14"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>9</v>

--- a/Cronograma de Atividades Parcial 2 entrega.xlsx
+++ b/Cronograma de Atividades Parcial 2 entrega.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="18">
   <si>
     <t>Alunos/Atividades:</t>
   </si>
@@ -503,7 +503,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -648,7 +648,7 @@
         <v>9</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>9</v>
@@ -670,7 +670,7 @@
         <v>9</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>9</v>
@@ -691,7 +691,9 @@
       <c r="G8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="2"/>
+      <c r="H8" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="I8" s="2" t="s">
         <v>9</v>
       </c>
@@ -775,7 +777,9 @@
       <c r="I11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J11" s="3"/>
+      <c r="J11" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
